--- a/ens_e_aval_agosto_2021_respostas.xlsx
+++ b/ens_e_aval_agosto_2021_respostas.xlsx
@@ -445,62 +445,100 @@
           <t>Carimbo de data/hora</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>20</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
@@ -1996,7 +2034,7 @@
         <v>2016</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -3662,7 +3700,7 @@
         <v>2015</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -3851,7 +3889,7 @@
         <v>2016</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -5474,7 +5512,7 @@
         <v>2016</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -6246,7 +6284,7 @@
         <v>2016</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
